--- a/medicine/Handicap/André_Trannoy/André_Trannoy.xlsx
+++ b/medicine/Handicap/André_Trannoy/André_Trannoy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Trannoy</t>
+          <t>André_Trannoy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Trannoy, né à Paris le 27 août 1907 et mort à Paris le 15 mai 1994[1], atteint de poliomyélite aux quatre membres à l'âge de dix-huit ans, est le fondateur en avril 1933 de l'Association des paralysés de France (APF) dont il fut président jusqu'en 1979.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Trannoy, né à Paris le 27 août 1907 et mort à Paris le 15 mai 1994, atteint de poliomyélite aux quatre membres à l'âge de dix-huit ans, est le fondateur en avril 1933 de l'Association des paralysés de France (APF) dont il fut président jusqu'en 1979.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Trannoy</t>
+          <t>André_Trannoy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">André Trannoy met notamment en œuvre un système de « cordées » : réseau d'entraide entre personnes handicapées, leur permettant un soutien et une prise en main collective, en dehors des structures existantes de l'époque.
 L'association qu'il a fondée avec quelques autres poliomyélitiques, sera reconnue d'utilité publique en 1945. Elle gère actuellement de nombreux établissements et services médico-éducatifs, au sein de 97 délégations départementales.
 André Trannoy, docteur es-lettres et professeur d'Histoire, a par la suite dirigé le centre de la Fondation Ellen Poidatz à Saint-Fargeau-Ponthierry.
 La ville de Paris rendra hommage à ce fondateur en donnant son nom en 2003 à la place André-Trannoy du 13e arrondissement de Paris. La place concernée se situe à proximité immédiate du siège de l'APF sis au 17, boulevard Auguste-Blanqui.
-André Trannoy a reçu de nombreuses décorations, dans l'ordre de la Légion d'honneur, l'ordre national du Mérite, l'ordre de la Santé Publique, ainsi que le prix Albert-Lasker en 1969[2].
+André Trannoy a reçu de nombreuses décorations, dans l'ordre de la Légion d'honneur, l'ordre national du Mérite, l'ordre de la Santé Publique, ainsi que le prix Albert-Lasker en 1969.
 Il est le grand-père de Patrick Trannoy, conseiller régional du Limousin.
 </t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Trannoy</t>
+          <t>André_Trannoy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de l'ordre national du Mérite
  Chevalier de la Légion d'honneur</t>
